--- a/data/trans_camb/P0901-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.5826937696853829</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.362357542881897</v>
+        <v>0.3623575428818943</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.435178046412275</v>
@@ -664,7 +664,7 @@
         <v>0.9140014468460675</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.5879416516138686</v>
+        <v>0.5879416516138645</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.488426685336482</v>
+        <v>-5.619300311265368</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.643311111989553</v>
+        <v>-2.150654469539412</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.513508402403605</v>
+        <v>-3.30540864919772</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.498224999353244</v>
+        <v>-6.222960138308236</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.406802533133351</v>
+        <v>-6.359595502216665</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.342461019189519</v>
+        <v>-4.802631967920922</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.267742584651621</v>
+        <v>-4.295314876234531</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.177295691702976</v>
+        <v>-2.378185317489982</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.267934991579979</v>
+        <v>-2.377662277829349</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.251038244827874</v>
+        <v>1.296477789649498</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.460872190553351</v>
+        <v>5.782195032123957</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.227346352366679</v>
+        <v>3.844610886014313</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.580922631614383</v>
+        <v>4.530233800922461</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.872821885725123</v>
+        <v>4.58947608065717</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.294901959015044</v>
+        <v>4.318574970417252</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.643467269329886</v>
+        <v>1.762334380214761</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.272707254959339</v>
+        <v>4.054523260729568</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.316496340328595</v>
+        <v>3.053506115597901</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.04503614575355108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02800645547478406</v>
+        <v>0.02800645547478384</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1444490661001192</v>
@@ -769,7 +769,7 @@
         <v>0.09199322393560755</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.05917567002177254</v>
+        <v>0.05917567002177213</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5474919380008787</v>
+        <v>-0.5508839851934055</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2788978357210521</v>
+        <v>-0.2299421396275787</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3444811126639877</v>
+        <v>-0.3394524363214375</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4228734097196632</v>
+        <v>-0.4103079635456423</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4035208292270504</v>
+        <v>-0.3903420917120392</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2758640618239267</v>
+        <v>-0.3004448887810519</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3777455762684243</v>
+        <v>-0.3743025118426974</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.196555658450346</v>
+        <v>-0.2078663366113474</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1958233419913626</v>
+        <v>-0.2034592551740567</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2219917839969502</v>
+        <v>0.2326209388084005</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8798845920440256</v>
+        <v>0.9303146858869322</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5105195771076023</v>
+        <v>0.6411613774122241</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4710345593140806</v>
+        <v>0.454426703519956</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.490618794262203</v>
+        <v>0.4417536614616887</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5269359900432593</v>
+        <v>0.4244302571156034</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2037187719468604</v>
+        <v>0.2118147665289186</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5044666143324603</v>
+        <v>0.474362265650366</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3989417808563159</v>
+        <v>0.3650514127133851</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.520426411601544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.023370973908689</v>
+        <v>5.023370973908688</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.931418788749631</v>
@@ -869,7 +869,7 @@
         <v>1.314165630897279</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.942661132867725</v>
+        <v>4.942661132867722</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.260223913963494</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.529386742733093</v>
+        <v>2.55141384635756</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.128888511540609</v>
+        <v>-2.161036824730719</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.321903131915731</v>
+        <v>1.600254259596263</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.022914040964509</v>
+        <v>-2.870079884103343</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.522048848761362</v>
+        <v>-3.297600633632299</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8325724775689756</v>
+        <v>1.034945930642053</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9095645649297655</v>
+        <v>1.275833195374333</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.459682469156163</v>
+        <v>-1.444025661870699</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.755328956025032</v>
+        <v>2.093143310485996</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.8384190607411</v>
+        <v>10.81047523313895</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.081569636917777</v>
+        <v>4.821154560512019</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.536085009570163</v>
+        <v>8.57272459083951</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.719997660530232</v>
+        <v>7.01886367094703</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.297252426071196</v>
+        <v>6.131196264695979</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.161997298871366</v>
+        <v>9.498451624762161</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.255476200033874</v>
+        <v>7.550813510731086</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.326079437587193</v>
+        <v>4.23122380164355</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.333794991638945</v>
+        <v>7.523837813340066</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2927871243491975</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.9673459568758118</v>
+        <v>0.9673459568758116</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1934006610252509</v>
@@ -974,7 +974,7 @@
         <v>0.1315926422548364</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4949283583076648</v>
+        <v>0.4949283583076645</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5601300141349761</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2904061959253773</v>
+        <v>0.3388237181550753</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3045846583183779</v>
+        <v>-0.3315525981983762</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1261478166176082</v>
+        <v>0.2088308753774222</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2616616294609851</v>
+        <v>-0.2613639844380114</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2937625730657799</v>
+        <v>-0.2770290921087727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05462103744021566</v>
+        <v>0.0777510755006826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1003290285303728</v>
+        <v>0.1389671331644969</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1633306545747686</v>
+        <v>-0.1770643335360249</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1852812997808795</v>
+        <v>0.2192225637190337</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.071559138722243</v>
+        <v>2.976800348871343</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.357449671391153</v>
+        <v>1.247768786171383</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.394011832343061</v>
+        <v>2.40229913956254</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.792492983216607</v>
+        <v>0.8779323957130647</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8542746585973757</v>
+        <v>0.8038648024447903</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.158420868578946</v>
+        <v>1.238652565377579</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.184473650050366</v>
+        <v>1.264986758622151</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6788264619882775</v>
+        <v>0.683533540827399</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.181374366938294</v>
+        <v>1.268732743063299</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.4683399140414019</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.415832424990813</v>
+        <v>5.415832424990807</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.17195986068</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7855814431101391</v>
+        <v>0.8231427039854535</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.132256274889308</v>
+        <v>-2.973457178821865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.454323266491912</v>
+        <v>1.312655938669962</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.13784234107353</v>
+        <v>-10.08503967431958</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.163671614980826</v>
+        <v>-8.844870998110299</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.335481722717686</v>
+        <v>-5.596259450192421</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.1617444286564189</v>
+        <v>0.009543300727897226</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.87277188092278</v>
+        <v>-3.095530899569436</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.910164480921955</v>
+        <v>1.292150905598903</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.202047371959113</v>
+        <v>8.279789205768855</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.747173805947952</v>
+        <v>4.096337705374112</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.546424546426046</v>
+        <v>9.767061054505659</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.758832919593841</v>
+        <v>6.290335649478235</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.795588462843865</v>
+        <v>10.33313729157752</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.91167642434511</v>
+        <v>10.35389738189953</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.048658046893283</v>
+        <v>7.18827621121913</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.17716135711259</v>
+        <v>3.993705264179839</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.160034043896655</v>
+        <v>8.927777949964241</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.04787947916035273</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.553673150534394</v>
+        <v>0.5536731505343935</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.05366447116633703</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.05497105446842515</v>
+        <v>0.03370703339023058</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2825474265541971</v>
+        <v>-0.2600578129527043</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.104595909295156</v>
+        <v>0.1157557830685712</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3831771264172603</v>
+        <v>-0.3689122827857155</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3309968804403884</v>
+        <v>-0.3274981891197853</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1954115051370743</v>
+        <v>-0.2132655412429577</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.009597316930698686</v>
+        <v>-0.008889100649770771</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2040288413191735</v>
+        <v>-0.2208719613435022</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1325367348954767</v>
+        <v>0.09250438194367672</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.032612206227986</v>
+        <v>0.9755671355417409</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4588253554321789</v>
+        <v>0.5054825437229845</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.177520230864661</v>
+        <v>1.197271288612592</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.416175235010696</v>
+        <v>0.3801761945018527</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6297867657518502</v>
+        <v>0.6090946319266441</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7355178073346892</v>
+        <v>0.5906380887094024</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6437615167424369</v>
+        <v>0.6557171738551868</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3679786071209937</v>
+        <v>0.3494483874097287</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8348651054666651</v>
+        <v>0.7908418457090409</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.8701374011315586</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.401301976086928</v>
+        <v>6.401301976086924</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.9710587171108676</v>
@@ -1297,7 +1297,7 @@
         <v>0.299351085383337</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.82856300987146</v>
+        <v>2.828563009871463</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.384992283610669</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8047981881628646</v>
+        <v>0.4399507857235059</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.587824991941238</v>
+        <v>-1.553101921501483</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.5187612623861</v>
+        <v>3.674715607051768</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.113782737762894</v>
+        <v>-2.745878630517187</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.3000351402827</v>
+        <v>-3.550765927782157</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4847145134953623</v>
+        <v>-0.6537206636812454</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1577939973278244</v>
+        <v>0.3058389384710744</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.051798827295007</v>
+        <v>-1.385906923672633</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.8107364090534</v>
+        <v>2.795648676660201</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.125664044972864</v>
+        <v>6.069971003488757</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.334540812187965</v>
+        <v>3.30900054421164</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.148162845501108</v>
+        <v>9.489088004323436</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.307001012549132</v>
+        <v>5.307048259217892</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.968758179406024</v>
+        <v>4.095021297065591</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.930899613370308</v>
+        <v>6.376813732596423</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.694112977050144</v>
+        <v>4.669864880474458</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.1126971612958</v>
+        <v>3.041313713468543</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.258147730130269</v>
+        <v>7.103294563956432</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.07935121257406438</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5837596145099544</v>
+        <v>0.5837596145099542</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.06610853806711758</v>
@@ -1402,7 +1402,7 @@
         <v>0.02037947064867127</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1925652508116858</v>
+        <v>0.192565250811686</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1934672337294601</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.06491709484910582</v>
+        <v>0.02817398221688018</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1292053546587804</v>
+        <v>-0.1308707992165219</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2955715434018299</v>
+        <v>0.2968597074247435</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1866879207194961</v>
+        <v>-0.1702822573857176</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1999251996449031</v>
+        <v>-0.2186993309888784</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03731215116785677</v>
+        <v>-0.03963952697354298</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01404708054795427</v>
+        <v>0.02230024958201151</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.08330797502243445</v>
+        <v>-0.1007263035011062</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2080112616001051</v>
+        <v>0.2035844606701811</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6211988172048711</v>
+        <v>0.6205058134236923</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3388517011584817</v>
+        <v>0.3352603317623201</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9618036104784156</v>
+        <v>0.9375176508963879</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3236934915079664</v>
+        <v>0.4070132234864809</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3007507498678775</v>
+        <v>0.317864949253206</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4617961116335717</v>
+        <v>0.5023510353914976</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4209780440489475</v>
+        <v>0.4186356109698215</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2804623347098856</v>
+        <v>0.2703236998921734</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6392988825379018</v>
+        <v>0.6217943179785292</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>3.249725257753469</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.000187309080419</v>
+        <v>6.000187309080421</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>12.43295232049348</v>
@@ -1520,7 +1520,7 @@
         <v>6.084346154576173</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>9.099173312869274</v>
+        <v>9.099173312869279</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.823818824955207</v>
+        <v>-2.055421253726304</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.9899309677458902</v>
+        <v>-1.105599814905592</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.260529948196598</v>
+        <v>0.898545966037771</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.016896318493998</v>
+        <v>8.13017215637522</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.404688020015352</v>
+        <v>4.267933024277749</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.33393979602537</v>
+        <v>7.204040297880267</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.06663934829125</v>
+        <v>4.958712270387096</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.584192665581635</v>
+        <v>3.098964954689925</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.098647355078344</v>
+        <v>6.039684544260882</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.380022931745534</v>
+        <v>6.768232424313431</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.497344759956478</v>
+        <v>7.702413339468321</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.31074013395675</v>
+        <v>10.25662306773151</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.96895703492794</v>
+        <v>16.70707854920302</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.58591902928296</v>
+        <v>13.08339104516475</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>15.02012846973295</v>
+        <v>15.34990225008214</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.67722281664164</v>
+        <v>11.33135861997371</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.240398314564374</v>
+        <v>9.232281797844594</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.15862142782079</v>
+        <v>12.02314918705355</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2834138635587625</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5232861649720859</v>
+        <v>0.5232861649720861</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.7953717013997766</v>
@@ -1625,7 +1625,7 @@
         <v>0.4332560600205859</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6479368331160995</v>
+        <v>0.6479368331160998</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2052864342362278</v>
+        <v>-0.1566313273089695</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.07692534311276739</v>
+        <v>-0.08540578213531458</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.09291747720403946</v>
+        <v>0.05501183405653957</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4446838459051244</v>
+        <v>0.436974406369845</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2366466865231996</v>
+        <v>0.2474970996091546</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4007707927890068</v>
+        <v>0.3759817278121786</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3166684063845495</v>
+        <v>0.3158859988017411</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1665535073983756</v>
+        <v>0.1867012029621814</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3714639061097602</v>
+        <v>0.3667076516805617</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7006835920586659</v>
+        <v>0.7647103191055585</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8440805888130947</v>
+        <v>0.8777818094534374</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.150921844114899</v>
+        <v>1.112643867378301</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.278458276782755</v>
+        <v>1.278825076565692</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.012325104329131</v>
+        <v>1.024988542691643</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.115006259300732</v>
+        <v>1.190894826207342</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9563921400069048</v>
+        <v>0.9194064026536187</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7700481914460097</v>
+        <v>0.7438817955916645</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9871192938038225</v>
+        <v>0.9857831940064592</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>3.059390147520041</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>3.481405493282197</v>
+        <v>3.481405493282194</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.440634551198878</v>
+        <v>-1.89169294505356</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.06276256282366</v>
+        <v>-3.3994502632961</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.327742043413207</v>
+        <v>-3.442957789039152</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.486819068832242</v>
+        <v>1.439617884178671</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.8659463208489707</v>
+        <v>0.576510592690998</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.7318249284372</v>
+        <v>1.984293686433413</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.595465733544206</v>
+        <v>1.344236710035226</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.01928386632378905</v>
+        <v>0.05237364416323843</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.5278866419294913</v>
+        <v>0.7306602848275172</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.228664918063061</v>
+        <v>5.227979143172417</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.427799801898926</v>
+        <v>2.428237469251683</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.089713126282817</v>
+        <v>1.909570853135401</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.200460797194751</v>
+        <v>8.811509044481257</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.906453678487882</v>
+        <v>7.874625987129136</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>8.49317433899556</v>
+        <v>8.448158499275927</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.320088857028398</v>
+        <v>7.086386767420685</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.928254967453428</v>
+        <v>6.060278220601269</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.285975817074549</v>
+        <v>6.363989737661083</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.1868172510139802</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.2125870100115073</v>
+        <v>0.2125870100115071</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4468719850818691</v>
+        <v>-0.460518344677785</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6912895144689597</v>
+        <v>-0.7296360993353378</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7684925600380932</v>
+        <v>-0.7462035908964219</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.07019144686528335</v>
+        <v>0.06685403102319978</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.03950285654629183</v>
+        <v>0.02573865169294253</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07775567573370258</v>
+        <v>0.09375351973109106</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0875283463487906</v>
+        <v>0.07886816878316263</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.001262361358526153</v>
+        <v>0.004689107839336325</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.02964313655745017</v>
+        <v>0.04010477130207616</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.535296194951973</v>
+        <v>2.751105134514696</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.355497045962643</v>
+        <v>1.324978857098189</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.157866338387894</v>
+        <v>1.074777778326432</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4648002630355484</v>
+        <v>0.4715633901058409</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4433571955323612</v>
+        <v>0.4313001258702339</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4739260487465654</v>
+        <v>0.4680274020731337</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.47485729269809</v>
+        <v>0.4666813583153137</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3965516590352416</v>
+        <v>0.3969161010084363</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.4217289616689454</v>
+        <v>0.4223891292105203</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>1.469127359942231</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4.530706989778934</v>
+        <v>4.530706989778936</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>4.467459005737356</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.38661174541239</v>
+        <v>1.429539454128272</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.169988627744828</v>
+        <v>0.0439683261764145</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.084533337545298</v>
+        <v>2.998115760695367</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.683737390203726</v>
+        <v>2.529345368098182</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.239381003059903</v>
+        <v>1.28553644707101</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.993211611601992</v>
+        <v>2.798643395155617</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.527578077625953</v>
+        <v>2.476711580878395</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.123940172750173</v>
+        <v>1.147031850932403</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.42857465399876</v>
+        <v>3.422275374499908</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.462791380678536</v>
+        <v>4.453299393646836</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.933991030410522</v>
+        <v>2.987799292327557</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.184940523032902</v>
+        <v>6.076194927821366</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.337730717005159</v>
+        <v>6.153806949904681</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.048773433809363</v>
+        <v>4.901422273087897</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.350788182705362</v>
+        <v>6.255868454836598</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.00844607804722</v>
+        <v>5.032209416139328</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.589511371611409</v>
+        <v>3.563810057345371</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.67478146708109</v>
+        <v>5.756580850753878</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.1625728471070458</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.5013656098305308</v>
+        <v>0.5013656098305311</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.2738652909277697</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1377903136693025</v>
+        <v>0.1489366111553838</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.01484654731858362</v>
+        <v>0.007355745895031652</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3128306627263868</v>
+        <v>0.3137606261395883</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1554340369180495</v>
+        <v>0.1491300302411301</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.07185024805777054</v>
+        <v>0.07495845349626945</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1706774832074129</v>
+        <v>0.1563345942228048</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1889929241140952</v>
+        <v>0.1862507788610153</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.08472639619578097</v>
+        <v>0.08604110944166538</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2573539743651445</v>
+        <v>0.2566385696161682</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5322275003458382</v>
+        <v>0.5360319593154858</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.343345626976881</v>
+        <v>0.360007955776896</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.7261059469740343</v>
+        <v>0.7288793825670778</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4091362672970731</v>
+        <v>0.397362788759877</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3245858014116613</v>
+        <v>0.3229734187924738</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4127645096671361</v>
+        <v>0.4064872738494947</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4122811175245262</v>
+        <v>0.415218308845416</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2924043831421039</v>
+        <v>0.2915528965396779</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.467685928230085</v>
+        <v>0.4708033870575122</v>
       </c>
     </row>
     <row r="46">
